--- a/xlsx/.mil_intext.xlsx
+++ b/xlsx/.mil_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>.mil</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>頂級域</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_.mil</t>
+    <t>顶级域</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_.mil</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A1%B6%E7%BA%A7%E5%9F%9F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>英國國防部</t>
+    <t>英国国防部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.com</t>
@@ -107,9 +107,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>通用頂級域</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/.biz</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%8F%8A%E5%9C%B0%E5%8D%80%E9%A0%82%E7%B4%9A%E5%9F%9F</t>
   </si>
   <si>
-    <t>國家及地區頂級域</t>
+    <t>国家及地区顶级域</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F%E5%90%8D</t>
@@ -1142,7 +1139,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1171,7 +1168,7 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1197,10 +1194,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1226,10 +1223,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1255,10 +1252,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1284,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1313,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1342,10 +1339,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1371,10 +1368,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1400,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1426,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1458,10 +1455,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1487,10 +1484,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1516,10 +1513,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1545,10 +1542,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1574,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>4</v>
@@ -1603,10 +1600,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1632,10 +1629,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1661,10 +1658,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1690,10 +1687,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1719,10 +1716,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1748,10 +1745,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1777,10 +1774,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1806,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1835,10 +1832,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1864,10 +1861,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1893,10 +1890,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>6</v>
@@ -1922,10 +1919,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1951,10 +1948,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1980,10 +1977,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2009,10 +2006,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2038,10 +2035,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2067,10 +2064,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2096,10 +2093,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2125,10 +2122,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2154,10 +2151,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2183,10 +2180,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" t="s">
         <v>95</v>
-      </c>
-      <c r="F51" t="s">
-        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2212,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2241,10 +2238,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" t="s">
         <v>95</v>
-      </c>
-      <c r="F53" t="s">
-        <v>96</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2270,10 +2267,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
         <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2299,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" t="s">
         <v>95</v>
-      </c>
-      <c r="F55" t="s">
-        <v>96</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2328,10 +2325,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
         <v>95</v>
-      </c>
-      <c r="F56" t="s">
-        <v>96</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2357,10 +2354,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F57" t="s">
         <v>95</v>
-      </c>
-      <c r="F57" t="s">
-        <v>96</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2386,10 +2383,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" t="s">
         <v>95</v>
-      </c>
-      <c r="F58" t="s">
-        <v>96</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2415,10 +2412,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F59" t="s">
         <v>95</v>
-      </c>
-      <c r="F59" t="s">
-        <v>96</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -2444,10 +2441,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>94</v>
+      </c>
+      <c r="F60" t="s">
         <v>95</v>
-      </c>
-      <c r="F60" t="s">
-        <v>96</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2502,10 +2499,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" t="s">
         <v>97</v>
-      </c>
-      <c r="F62" t="s">
-        <v>98</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2531,10 +2528,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>98</v>
+      </c>
+      <c r="F63" t="s">
         <v>99</v>
-      </c>
-      <c r="F63" t="s">
-        <v>100</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2560,10 +2557,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>100</v>
+      </c>
+      <c r="F64" t="s">
         <v>101</v>
-      </c>
-      <c r="F64" t="s">
-        <v>102</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2589,10 +2586,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>102</v>
+      </c>
+      <c r="F65" t="s">
         <v>103</v>
-      </c>
-      <c r="F65" t="s">
-        <v>104</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2618,10 +2615,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" t="s">
         <v>105</v>
-      </c>
-      <c r="F66" t="s">
-        <v>106</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2647,10 +2644,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" t="s">
         <v>107</v>
-      </c>
-      <c r="F67" t="s">
-        <v>108</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -2676,10 +2673,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" t="s">
         <v>105</v>
-      </c>
-      <c r="F68" t="s">
-        <v>106</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2705,10 +2702,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
         <v>95</v>
-      </c>
-      <c r="F69" t="s">
-        <v>96</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -2734,10 +2731,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" t="s">
         <v>109</v>
-      </c>
-      <c r="F70" t="s">
-        <v>110</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2763,10 +2760,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F71" t="s">
         <v>111</v>
-      </c>
-      <c r="F71" t="s">
-        <v>112</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2792,10 +2789,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" t="s">
         <v>113</v>
-      </c>
-      <c r="F72" t="s">
-        <v>114</v>
       </c>
       <c r="G72" t="n">
         <v>6</v>
@@ -2821,10 +2818,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" t="s">
         <v>115</v>
-      </c>
-      <c r="F73" t="s">
-        <v>116</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
